--- a/Invoice Entry/Invoices.xlsx
+++ b/Invoice Entry/Invoices.xlsx
@@ -26,7 +26,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <x:si>
+    <x:t>Company Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Pin Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Contact No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Tin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Pin Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Tin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Contact No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J.K.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2481 Felosa Drive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Llano</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Texas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+17319696651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14122226789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mirtha M. Reeve</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2099 John Calvin Drive
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Augustine</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Florida INVOICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>708-820-3518</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 14125436789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan 20, 2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1520.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20520.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra J. Williams</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3174 Trainer Avenue
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309-463-2797</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 14123926789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mar 20, 2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sonja D. Eaton</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4384 Heliport Loop
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orlando</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812-649-6832</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 14122987689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apr 25, 2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1920.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25920.00</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +548,7 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C17" sqref="C17 A1:XFD1048576 C17:C17"/>
+      <x:selection activeCell="C17" sqref="C17 C17:C17 A1:XFD1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +578,245 @@
     <x:col min="23" max="23" width="5.21875" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="17" spans="1:23"/>
+    <x:row r="1" spans="1:23">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:23">
+      <x:c r="A2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:23">
+      <x:c r="A3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="S3" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:23">
+      <x:c r="A4" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="O4" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P4" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q4" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R4" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="S4" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:23">
+      <x:c r="C17" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
